--- a/xlsx/中国社会科学院_intext.xlsx
+++ b/xlsx/中国社会科学院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="807">
   <si>
     <t>中国社会科学院</t>
   </si>
@@ -29,7 +29,7 @@
     <t>中国科学院</t>
   </si>
   <si>
-    <t>政策_政策_智庫_中国社会科学院</t>
+    <t>政策_政策_智库_中国社会科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AB%A0</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E8%99%9F%E7%A2%BC</t>
   </si>
   <si>
-    <t>電話號碼</t>
+    <t>电话号码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際冠碼</t>
+    <t>国际冠码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國政府</t>
+    <t>中华民国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%B1%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>國共內戰</t>
+    <t>国共内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E5%B8%82</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%9E%A3</t>
   </si>
   <si>
-    <t>陳垣</t>
+    <t>陈垣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%AF%85%E5%88%9D</t>
   </si>
   <si>
-    <t>馬寅初</t>
+    <t>马寅初</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%95%98%E5%80%AB</t>
   </si>
   <si>
-    <t>馬敘倫</t>
+    <t>马叙伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E6%A0%91%E8%BE%BE</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%AF%85%E6%81%AA</t>
   </si>
   <si>
-    <t>陳寅恪</t>
+    <t>陈寅恪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E8%BE%BE_(%E5%93%B2%E5%AD%A6%E5%AE%B6)</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%9C%9B%E9%81%93</t>
   </si>
   <si>
-    <t>陳望道</t>
+    <t>陈望道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E9%8C%A6%E7%86%99</t>
   </si>
   <si>
-    <t>黎錦熙</t>
+    <t>黎锦熙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E4%BF%A8_(%E7%8E%B0%E4%BB%A3%E5%AD%A6%E8%80%85)</t>
@@ -515,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%94%A8%E5%BD%A4</t>
   </si>
   <si>
-    <t>湯用彤</t>
+    <t>汤用彤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E6%96%87%E7%80%BE</t>
   </si>
   <si>
-    <t>范文瀾</t>
+    <t>范文澜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E6%A2%93%E5%B9%B4</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AE%E5%8F%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>馮友蘭</t>
+    <t>冯友兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E7%9B%BE</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E6%8C%AF%E9%90%B8</t>
   </si>
   <si>
-    <t>鄭振鐸</t>
+    <t>郑振铎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%A6%E4%BC%AF%E8%B4%8A</t>
   </si>
   <si>
-    <t>翦伯贊</t>
+    <t>翦伯赞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%9D%BE%E9%BE%84</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%B8%B8%E5%9F%B9</t>
   </si>
   <si>
-    <t>羅常培</t>
+    <t>罗常培</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%91%E8%BE%BE</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E6%8C%AF%E7%BE%BD</t>
   </si>
   <si>
-    <t>呂振羽</t>
+    <t>吕振羽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%88%E5%BF%97%E8%BF%9C</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E6%9A%AE%E6%A9%8B</t>
   </si>
   <si>
-    <t>薛暮橋</t>
+    <t>薛暮桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E5%A4%96%E5%BA%90</t>
@@ -659,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E4%BC%AF%E9%81%94</t>
   </si>
   <si>
-    <t>陳伯達</t>
+    <t>陈伯达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%8F%94%E6%B9%98</t>
   </si>
   <si>
-    <t>呂叔湘</t>
+    <t>吕叔湘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%AD%E5%A4%A7%E5%8A%9B</t>
@@ -725,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E6%99%97</t>
   </si>
   <si>
-    <t>吳晗</t>
+    <t>吴晗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E8%81%B2%E6%A8%B9</t>
   </si>
   <si>
-    <t>丁聲樹</t>
+    <t>丁声树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%AE%B6%E9%A9%B9</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%A7%E6%8B%93</t>
   </si>
   <si>
-    <t>鄧拓</t>
+    <t>邓拓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%85%B6%E8%8A%B3</t>
@@ -773,9 +773,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%96%AC%E6%9C%A8</t>
   </si>
   <si>
-    <t>胡喬木</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%98%E5%A4%A7%E5%B9%B4</t>
   </si>
   <si>
@@ -785,19 +782,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8E%E5%85%89%E9%81%A0</t>
   </si>
   <si>
-    <t>于光遠</t>
+    <t>于光远</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E7%B9%A9</t>
   </si>
   <si>
-    <t>胡繩</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E5%BF%97%E9%9F%8B</t>
   </si>
   <si>
-    <t>陸志韋</t>
+    <t>陆志韦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B5%87%E6%96%87%E7%94%AB</t>
@@ -809,15 +803,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E6%BE%82</t>
   </si>
   <si>
-    <t>呂澂</t>
+    <t>吕澂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%87%91%E6%B3%A2</t>
   </si>
   <si>
@@ -863,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%99%E6%B0%B8%E5%AE%9A</t>
   </si>
   <si>
-    <t>余永定</t>
+    <t>馀永定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%BA%B6</t>
@@ -917,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E6%88%90%E6%80%9D</t>
   </si>
   <si>
-    <t>鄭成思</t>
+    <t>郑成思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%9D%E6%97%B6%E8%BF%9C</t>
@@ -935,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E5%AF%B6%E7%94%9F</t>
   </si>
   <si>
-    <t>黃寶生</t>
+    <t>黄宝生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E5%A4%A9%E9%AD%81</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%98%E5%85%83%E5%80%AB</t>
   </si>
   <si>
-    <t>裘元倫</t>
+    <t>裘元伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%B7%8D</t>
@@ -1001,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>劉世德</t>
+    <t>刘世德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E5%85%8B%E6%98%8E</t>
   </si>
   <si>
-    <t>劉克明</t>
+    <t>刘克明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%98%E8%B5%B7%E9%87%AA</t>
@@ -1025,13 +1016,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%AE%88%E4%B8%80</t>
   </si>
   <si>
-    <t>張守一</t>
+    <t>张守一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%AD%A5%E9%9B%B2</t>
   </si>
   <si>
-    <t>李步雲</t>
+    <t>李步云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E5%A4%A9%E7%9F%B3</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E5%AD%A3%E5%BA%B7</t>
   </si>
   <si>
-    <t>楊季康</t>
+    <t>杨季康</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%AD%A6%E8%89%BA</t>
@@ -1067,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%AF%B6%E6%A3%AE</t>
   </si>
   <si>
-    <t>陳寶森</t>
+    <t>陈宝森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E7%99%BD%E6%85%A7</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E9%82%A3%E6%96%AF%E5%9C%96</t>
   </si>
   <si>
-    <t>照那斯圖</t>
+    <t>照那斯图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E7%BE%8E%E5%BD%AA</t>
@@ -1145,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%99%E5%A4%AA%E5%B1%B1</t>
   </si>
   <si>
-    <t>余太山</t>
+    <t>馀太山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E6%B5%B7%E6%B6%9B</t>
@@ -1163,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BA%9E%E6%B4%B2%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>自由亞洲電台</t>
+    <t>自由亚洲电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%8A%A5</t>
@@ -2225,13 +2216,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%A7%90%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%81%AF%E7%B5%A1%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>中央人民政府駐香港特別行政區聯絡辦公室</t>
+    <t>中央人民政府驻香港特别行政区联络办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%A7%90%E6%BE%B3%E9%96%80%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%81%AF%E7%B5%A1%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>中央人民政府駐澳門特別行政區聯絡辦公室</t>
+    <t>中央人民政府驻澳门特别行政区联络办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%9C%89%E9%87%8D%E7%82%B9%E5%A4%A7%E5%9E%8B%E4%BC%81%E4%B8%9A%E7%9B%91%E4%BA%8B%E4%BC%9A</t>
@@ -2381,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E6%B5%B7%E9%B5%AC_(%E6%AD%B7%E5%8F%B2%E5%AD%B8%E8%80%85)</t>
   </si>
   <si>
-    <t>張海鵬 (歷史學者)</t>
+    <t>张海鹏 (历史学者)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%89%AC</t>
@@ -2393,7 +2384,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%BE%A9</t>
   </si>
   <si>
-    <t>楊義</t>
+    <t>杨义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%BC%98</t>
@@ -2405,21 +2396,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%91%E6%88%90%E6%80%9D</t>
   </si>
   <si>
-    <t>郑成思</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%98%E5%85%83%E4%BC%A6</t>
   </si>
   <si>
-    <t>裘元伦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%98%E5%85%8B%E6%98%8E</t>
   </si>
   <si>
-    <t>刘克明</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E7%BB%8D%E6%96%87</t>
   </si>
   <si>
@@ -2429,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E7%82%AF</t>
   </si>
   <si>
-    <t>張炯</t>
+    <t>张炯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E6%A4%BF%E5%B9%B4</t>
@@ -6478,7 +6460,7 @@
         <v>251</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6504,10 +6486,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6533,10 +6515,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6562,10 +6544,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6591,10 +6573,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6620,10 +6602,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6649,10 +6631,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6678,10 +6660,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6707,10 +6689,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6736,10 +6718,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6765,10 +6747,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6794,10 +6776,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6823,10 +6805,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6852,10 +6834,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6881,10 +6863,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6910,10 +6892,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6939,10 +6921,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6968,10 +6950,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6997,10 +6979,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7026,10 +7008,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7055,10 +7037,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7084,10 +7066,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7113,10 +7095,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7142,10 +7124,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7171,10 +7153,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7200,10 +7182,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7229,10 +7211,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7258,10 +7240,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7287,10 +7269,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7316,10 +7298,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7345,10 +7327,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7403,10 +7385,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7432,10 +7414,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7461,10 +7443,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7490,10 +7472,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7519,10 +7501,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7548,10 +7530,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7577,10 +7559,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7606,10 +7588,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7635,10 +7617,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7664,10 +7646,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7693,10 +7675,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7722,10 +7704,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7751,10 +7733,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7780,10 +7762,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7809,10 +7791,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7838,10 +7820,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7867,10 +7849,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7896,10 +7878,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7925,10 +7907,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7954,10 +7936,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7983,10 +7965,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8012,10 +7994,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8041,10 +8023,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8070,10 +8052,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8099,10 +8081,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8128,10 +8110,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8157,10 +8139,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8186,10 +8168,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8215,10 +8197,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8244,10 +8226,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8273,10 +8255,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8302,10 +8284,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8331,10 +8313,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8360,10 +8342,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8389,10 +8371,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8418,10 +8400,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8447,10 +8429,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8476,10 +8458,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8505,10 +8487,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>7</v>
@@ -8534,10 +8516,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8563,10 +8545,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8621,10 +8603,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8650,10 +8632,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>7</v>
@@ -8708,10 +8690,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8737,10 +8719,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8766,10 +8748,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8795,10 +8777,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8824,10 +8806,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8853,10 +8835,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8882,10 +8864,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G210" t="n">
         <v>4</v>
@@ -8911,10 +8893,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8940,10 +8922,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G212" t="n">
         <v>12</v>
@@ -8969,10 +8951,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8998,10 +8980,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9027,10 +9009,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9056,10 +9038,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9085,10 +9067,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9114,10 +9096,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -9143,10 +9125,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F219" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9172,10 +9154,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G220" t="n">
         <v>118</v>
@@ -9201,10 +9183,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9230,10 +9212,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G222" t="n">
         <v>6</v>
@@ -9259,10 +9241,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9288,10 +9270,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9317,10 +9299,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9346,10 +9328,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9375,10 +9357,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F227" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9404,10 +9386,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -9433,10 +9415,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9462,10 +9444,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9491,10 +9473,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9520,10 +9502,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9549,10 +9531,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G233" t="n">
         <v>4</v>
@@ -9578,10 +9560,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9607,10 +9589,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9636,10 +9618,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9665,10 +9647,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9694,10 +9676,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9723,10 +9705,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9752,10 +9734,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9781,10 +9763,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G241" t="n">
         <v>6</v>
@@ -9810,10 +9792,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9839,10 +9821,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9868,10 +9850,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9897,10 +9879,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9926,10 +9908,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9955,10 +9937,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9984,10 +9966,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10013,10 +9995,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10042,10 +10024,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10071,10 +10053,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10100,10 +10082,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10129,10 +10111,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10158,10 +10140,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F254" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10187,10 +10169,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F255" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10216,10 +10198,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10245,10 +10227,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10274,10 +10256,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10303,10 +10285,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10332,10 +10314,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10361,10 +10343,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10390,10 +10372,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10419,10 +10401,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10448,10 +10430,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10477,10 +10459,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10506,10 +10488,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10535,10 +10517,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10564,10 +10546,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -10593,10 +10575,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10622,10 +10604,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10651,10 +10633,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10680,10 +10662,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -10709,10 +10691,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10738,10 +10720,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10767,10 +10749,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10796,10 +10778,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10825,10 +10807,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10854,10 +10836,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10883,10 +10865,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10912,10 +10894,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10941,10 +10923,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10970,10 +10952,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10999,13 +10981,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11028,10 +11010,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11057,10 +11039,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11086,10 +11068,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11173,10 +11155,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F289" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11260,10 +11242,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11289,10 +11271,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11318,10 +11300,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11347,10 +11329,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11376,10 +11358,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11405,10 +11387,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11434,10 +11416,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11492,10 +11474,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11521,10 +11503,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11550,13 +11532,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11579,10 +11561,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F303" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -11608,10 +11590,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11637,10 +11619,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F305" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G305" t="n">
         <v>9</v>
@@ -11666,10 +11648,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F306" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11695,10 +11677,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11724,10 +11706,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F308" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G308" t="n">
         <v>8</v>
@@ -11753,10 +11735,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F309" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11782,10 +11764,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11811,10 +11793,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11840,10 +11822,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F312" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G312" t="n">
         <v>4</v>
@@ -11869,10 +11851,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F313" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11898,10 +11880,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F314" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11927,10 +11909,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F315" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11956,10 +11938,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F316" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11985,10 +11967,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F317" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12014,10 +11996,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F318" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12043,10 +12025,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F319" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G319" t="n">
         <v>3</v>
@@ -12072,10 +12054,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F320" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12101,10 +12083,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F321" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12130,10 +12112,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F322" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12159,10 +12141,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F323" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12188,10 +12170,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F324" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12217,10 +12199,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F325" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -12246,10 +12228,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F326" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12275,10 +12257,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F327" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12304,10 +12286,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12333,10 +12315,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F329" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12362,13 +12344,13 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F330" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12391,10 +12373,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F331" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12420,10 +12402,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F332" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12449,10 +12431,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F333" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12478,10 +12460,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F334" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12507,13 +12489,13 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F335" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12536,10 +12518,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F336" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12565,10 +12547,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F337" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12594,10 +12576,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F338" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12623,10 +12605,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F339" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12652,10 +12634,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F340" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12681,10 +12663,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F341" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12710,10 +12692,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F342" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12739,10 +12721,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F343" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12768,10 +12750,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F344" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12797,10 +12779,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F345" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12826,10 +12808,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F346" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12855,10 +12837,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F347" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12884,10 +12866,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F348" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12913,10 +12895,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F349" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12942,10 +12924,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F350" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12971,10 +12953,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F351" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13000,10 +12982,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F352" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13029,10 +13011,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F353" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13058,10 +13040,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F354" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13087,10 +13069,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F355" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13116,10 +13098,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F356" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13145,10 +13127,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F357" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13174,10 +13156,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F358" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13203,10 +13185,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F359" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13232,10 +13214,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F360" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13261,10 +13243,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F361" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13290,10 +13272,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F362" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13319,10 +13301,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F363" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13348,10 +13330,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F364" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13377,10 +13359,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F365" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13406,10 +13388,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F366" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13435,10 +13417,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F367" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G367" t="n">
         <v>3</v>
@@ -13464,10 +13446,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F368" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13493,10 +13475,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F369" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G369" t="n">
         <v>3</v>
@@ -13522,10 +13504,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F370" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13551,10 +13533,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F371" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13580,10 +13562,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F372" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13609,10 +13591,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F373" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13638,10 +13620,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F374" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13667,10 +13649,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F375" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13696,10 +13678,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F376" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13725,10 +13707,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F377" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13754,10 +13736,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F378" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13783,10 +13765,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F379" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13812,10 +13794,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F380" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13841,10 +13823,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F381" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13870,10 +13852,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F382" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13899,10 +13881,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F383" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13928,10 +13910,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F384" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13957,10 +13939,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F385" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13986,10 +13968,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F386" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14015,10 +13997,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F387" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14044,10 +14026,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F388" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14073,10 +14055,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F389" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14102,10 +14084,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F390" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14131,10 +14113,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F391" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14160,10 +14142,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F392" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14189,10 +14171,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F393" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14218,10 +14200,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F394" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14247,10 +14229,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F395" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14276,10 +14258,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F396" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14305,10 +14287,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F397" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14334,10 +14316,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F398" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14363,10 +14345,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F399" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14392,10 +14374,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F400" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14421,10 +14403,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F401" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14450,10 +14432,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F402" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14479,10 +14461,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F403" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14508,10 +14490,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F404" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14537,10 +14519,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F405" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14566,10 +14548,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F406" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14595,10 +14577,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F407" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14624,10 +14606,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F408" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14653,10 +14635,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F409" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14682,10 +14664,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F410" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G410" t="n">
         <v>8</v>
@@ -14711,10 +14693,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F411" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G411" t="n">
         <v>203</v>
@@ -14740,10 +14722,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F412" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G412" t="n">
         <v>15</v>
@@ -14769,10 +14751,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F413" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G413" t="n">
         <v>4</v>
@@ -14798,10 +14780,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F414" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G414" t="n">
         <v>38</v>
@@ -14827,10 +14809,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F415" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G415" t="n">
         <v>9</v>
@@ -14856,10 +14838,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F416" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -14885,10 +14867,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F417" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G417" t="n">
         <v>24</v>
@@ -14914,10 +14896,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F418" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G418" t="n">
         <v>18</v>
@@ -14943,10 +14925,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F419" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G419" t="n">
         <v>8</v>
@@ -15059,10 +15041,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F423" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -15088,10 +15070,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F424" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15117,10 +15099,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F425" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15146,10 +15128,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F426" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15175,10 +15157,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F427" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15204,10 +15186,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F428" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15233,10 +15215,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F429" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15262,10 +15244,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F430" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15291,10 +15273,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F431" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15320,10 +15302,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F432" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15349,10 +15331,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F433" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15378,10 +15360,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F434" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15407,10 +15389,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F435" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15436,10 +15418,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F436" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15465,10 +15447,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F437" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15494,10 +15476,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F438" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15523,10 +15505,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F439" t="s">
-        <v>796</v>
+        <v>297</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15552,10 +15534,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F440" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15581,10 +15563,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F441" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15610,10 +15592,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F442" t="s">
-        <v>798</v>
+        <v>309</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15639,10 +15621,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F443" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15668,10 +15650,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F444" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15697,10 +15679,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F445" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15755,10 +15737,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F447" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15784,10 +15766,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>254</v>
+      </c>
+      <c r="F448" t="s">
         <v>255</v>
-      </c>
-      <c r="F448" t="s">
-        <v>256</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15813,10 +15795,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F449" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -15842,10 +15824,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F450" t="s">
-        <v>800</v>
+        <v>327</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -15871,10 +15853,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F451" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -15900,10 +15882,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F452" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -15929,10 +15911,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F453" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -15958,10 +15940,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F454" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -15987,10 +15969,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F455" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16016,10 +15998,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F456" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16045,10 +16027,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F457" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16074,10 +16056,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F458" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16103,10 +16085,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F459" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16132,10 +16114,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F460" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16161,10 +16143,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F461" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16190,10 +16172,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F462" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16219,10 +16201,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F463" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16248,10 +16230,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F464" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16277,10 +16259,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F465" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16335,10 +16317,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F467" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16364,10 +16346,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F468" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16393,10 +16375,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F469" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16422,10 +16404,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F470" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16451,10 +16433,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F471" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16480,10 +16462,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F472" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
